--- a/data/trans_camb/P2A_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-8.722670817689293</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-19.29914438323063</v>
+        <v>-19.29914438323062</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-5.116729639185492</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.321500917035087</v>
+        <v>-7.36897963970614</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.2386292508749</v>
+        <v>-4.474650262132003</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.90056946430236</v>
+        <v>-14.84869815292857</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.50140753073463</v>
+        <v>-8.419938720869528</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-12.18740420635527</v>
+        <v>-12.51985809330375</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-24.05793317424238</v>
+        <v>-24.20210953240407</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-8.07764542430699</v>
+        <v>-8.320768863137648</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-9.223038789764395</v>
+        <v>-9.292927470553519</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-19.45184527357025</v>
+        <v>-19.30671656879089</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.096985972638568</v>
+        <v>2.98303531557469</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.399103003212285</v>
+        <v>4.925517815348196</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.730423304366601</v>
+        <v>-1.506907111172698</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.2922143755535306</v>
+        <v>-0.8644806363882827</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-4.310548196170438</v>
+        <v>-4.711822705850929</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-14.77648343933668</v>
+        <v>-14.49522170915006</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-1.991172421567371</v>
+        <v>-1.558834610150291</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-2.815920562021808</v>
+        <v>-2.946576117374098</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-11.60542988321924</v>
+        <v>-11.7399587263991</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.1148864195069346</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2541893009696417</v>
+        <v>-0.2541893009696416</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.07476643832835464</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.122846293177859</v>
+        <v>-0.1223424662864084</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.08699301936505568</v>
+        <v>-0.07558919781852845</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2522074610804451</v>
+        <v>-0.2506507154069504</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1081673416426478</v>
+        <v>-0.1085906547708309</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1570559505562481</v>
+        <v>-0.1617864371320499</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3071924533249927</v>
+        <v>-0.312338000128941</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1148265166034149</v>
+        <v>-0.118763049505371</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1313751577579601</v>
+        <v>-0.1322611618589301</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2779069672140408</v>
+        <v>-0.2743481606338938</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.05909138808320236</v>
+        <v>0.05475473219008262</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1024544041770012</v>
+        <v>0.09260062339662348</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.031834080905219</v>
+        <v>-0.02711670853922147</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.003861181205334745</v>
+        <v>-0.01098474321259058</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.05966291420137304</v>
+        <v>-0.06573527215754256</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1968048999519082</v>
+        <v>-0.1950419111587403</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.02987969173948752</v>
+        <v>-0.02329845291590058</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.04251053423423337</v>
+        <v>-0.04426669976078139</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1754549998572345</v>
+        <v>-0.1733950730212332</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.423034564919701</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-6.124569833579596</v>
+        <v>-6.12456983357959</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>7.943192922267606</v>
@@ -878,7 +878,7 @@
         <v>2.037435010165345</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-7.548688652678187</v>
+        <v>-7.548688652678198</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.336337996469257</v>
+        <v>3.053950698326586</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.903338711641882</v>
+        <v>-2.843886859303355</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.19623183165444</v>
+        <v>-10.60424480685768</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.164923808073767</v>
+        <v>4.126181166852739</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.046699056126361</v>
+        <v>-2.206344485464428</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-13.8195792133789</v>
+        <v>-13.93517261637218</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.050763904904803</v>
+        <v>5.401135891468403</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.111843716566776</v>
+        <v>-1.262013263914795</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-10.69782592045472</v>
+        <v>-10.65204130137478</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.0884267672022</v>
+        <v>12.24747304797527</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.93393618691361</v>
+        <v>6.28744733543261</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.485027480166823</v>
+        <v>-1.236811290488764</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.21032391648293</v>
+        <v>12.0586446343546</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.159056762271529</v>
+        <v>6.251427057879573</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-5.83095425673553</v>
+        <v>-5.852255811503396</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>11.4566958674948</v>
+        <v>11.2080378971305</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.081592465811643</v>
+        <v>5.179125773034373</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-4.427992056124451</v>
+        <v>-4.199601182521196</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.02845730897687812</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1224768395660694</v>
+        <v>-0.1224768395660693</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1282123472133416</v>
@@ -983,7 +983,7 @@
         <v>0.03643303597331927</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1349842541539975</v>
+        <v>-0.1349842541539977</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.06325848166589039</v>
+        <v>0.05702950827752839</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.05608492297029944</v>
+        <v>-0.05372227200662989</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1948981793808549</v>
+        <v>-0.2055341330161</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.06517280204367384</v>
+        <v>0.06297408643290479</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03163344819539696</v>
+        <v>-0.03459125483574865</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.214320527770819</v>
+        <v>-0.2158821109449432</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0867676182654827</v>
+        <v>0.09428068285809237</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.01925427673135786</v>
+        <v>-0.02088645543431473</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1861841538756672</v>
+        <v>-0.1855841538131507</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2538750740853898</v>
+        <v>0.2553334923151374</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1267956091448517</v>
+        <v>0.1327002078226298</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.02941519590149938</v>
+        <v>-0.02625396883580617</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2064827625509703</v>
+        <v>0.2027331599785143</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1033535260651033</v>
+        <v>0.1050386233123797</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.09763405324624648</v>
+        <v>-0.09699310636686452</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.211486573430618</v>
+        <v>0.2056988967767816</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.0939628106594815</v>
+        <v>0.09503908536445628</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.08178817808294976</v>
+        <v>-0.07694669707636174</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>4.165495797184604</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-6.357793593354005</v>
+        <v>-6.35779359335401</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>11.43561327271884</v>
@@ -1092,7 +1092,7 @@
         <v>4.647435719857318</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-9.312913122022238</v>
+        <v>-9.312913122022232</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.713074797952261</v>
+        <v>8.881441665178697</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.5429986060711995</v>
+        <v>-0.4387409423473705</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.65316123436458</v>
+        <v>-10.67478642578933</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.772767093026613</v>
+        <v>6.816716183009136</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2913745914199251</v>
+        <v>-0.07557599109702283</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-16.92786854647927</v>
+        <v>-17.00140942933026</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>9.832252036541075</v>
+        <v>9.592759302794956</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.442276168238418</v>
+        <v>1.025299410418653</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-12.46783666085053</v>
+        <v>-12.42332458614207</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.8040867230318</v>
+        <v>18.39815348672983</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.528929970717849</v>
+        <v>8.958694569996458</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.056372024905261</v>
+        <v>-2.123651436071649</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.63265375747795</v>
+        <v>15.50898292525464</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.282669626900146</v>
+        <v>9.192597945645968</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-8.56808223058178</v>
+        <v>-9.032631932202904</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>16.08489326206826</v>
+        <v>16.16786596814118</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.091112858811369</v>
+        <v>7.842198108072278</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-6.483884766768276</v>
+        <v>-6.468077646894166</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.09281688368550141</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1416663507017848</v>
+        <v>-0.1416663507017849</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2036161962780738</v>
@@ -1188,7 +1188,7 @@
         <v>0.08624557257387683</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2306077226386055</v>
+        <v>-0.2306077226386054</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.2559631868543031</v>
@@ -1197,7 +1197,7 @@
         <v>0.09261498247440261</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1855895030234445</v>
+        <v>-0.1855895030234444</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1843380876430779</v>
+        <v>0.1897276275460813</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.01045549960372849</v>
+        <v>-0.009013632015963658</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2229854509262358</v>
+        <v>-0.2292386510209808</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1152539077254152</v>
+        <v>0.1149285987144359</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.005920349352798962</v>
+        <v>-0.001271936251644131</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2865571908654554</v>
+        <v>-0.2924298508935664</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1878996994881562</v>
+        <v>0.184432775064618</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.02821934376081831</v>
+        <v>0.01971372476897744</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2421143587550953</v>
+        <v>-0.2407152281744017</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4201257955740845</v>
+        <v>0.4289934305914496</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.202178031027227</v>
+        <v>0.2100637699289891</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.04706680573812195</v>
+        <v>-0.04803803576011298</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2887038974721686</v>
+        <v>0.2877962383137797</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.174611898641155</v>
+        <v>0.169576313607686</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1588662681797181</v>
+        <v>-0.1662973771534088</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3298298902176672</v>
+        <v>0.3307170130920462</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1671931825815082</v>
+        <v>0.161697748222029</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1331836230234233</v>
+        <v>-0.1322201911058262</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.03420722278343</v>
+        <v>1.538999504643437</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.129851567736361</v>
+        <v>-0.5580986239015441</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-14.66741075644844</v>
+        <v>-14.24994563282186</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.231242075682188</v>
+        <v>-2.369940035716452</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-8.68412040618235</v>
+        <v>-9.400843877134276</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-30.46971928332255</v>
+        <v>-30.34276608840882</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.281290276118981</v>
+        <v>2.2937920025185</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.208338125396759</v>
+        <v>-1.184835790887456</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-19.53899034001698</v>
+        <v>-19.84573846712572</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.88079587195106</v>
+        <v>14.1213346446167</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.75915187790315</v>
+        <v>12.8822023750352</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3.528398777327335</v>
+        <v>-3.038251998018068</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.34516273655188</v>
+        <v>12.00388048532312</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.907127846164046</v>
+        <v>4.81194408273996</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-18.87047489213811</v>
+        <v>-19.27029022287882</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>11.84080513883016</v>
+        <v>11.94341898083002</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.862585865081136</v>
+        <v>8.074390291032895</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-11.4803051098345</v>
+        <v>-11.33378903209559</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.07015964796781178</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3189977422850541</v>
+        <v>-0.3189977422850542</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.02036804884377058</v>
+        <v>0.03654403219173703</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02672343960727245</v>
+        <v>-0.01147645107816238</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3318715313417328</v>
+        <v>-0.3175930419209454</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.03462964594584772</v>
+        <v>-0.03768542468559673</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1337148228183061</v>
+        <v>-0.1470072125839973</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4757823041958303</v>
+        <v>-0.4782680557531083</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04439930062141725</v>
+        <v>0.04486224794296702</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.02409783276466602</v>
+        <v>-0.02301266400775452</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3739993773964919</v>
+        <v>-0.3824324451964755</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4003025827535542</v>
+        <v>0.3839331153808709</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3394143191240062</v>
+        <v>0.3474119122566197</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.09556728961841006</v>
+        <v>-0.08072271530454141</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.198076376554809</v>
+        <v>0.2114067632897962</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08427236269646182</v>
+        <v>0.08733734278906735</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3407866549066434</v>
+        <v>-0.3469255559520174</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2527823221134307</v>
+        <v>0.2608523186277482</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1689424663631048</v>
+        <v>0.1745363249304118</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2450293486732596</v>
+        <v>-0.2451832482491722</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.749632205157154</v>
+        <v>4.925226858215652</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.1980198791176</v>
+        <v>1.198021102727703</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-11.40549612224484</v>
+        <v>-11.07995148752091</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.920397036144827</v>
+        <v>2.864457860619823</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.541109454935001</v>
+        <v>-2.441566026745772</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-20.03896542860946</v>
+        <v>-19.93230754859896</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.786067385356697</v>
+        <v>4.54484312187309</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1609914289750298</v>
+        <v>0.2071603230739424</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-14.77919234913806</v>
+        <v>-14.8354831401255</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.779741542207306</v>
+        <v>9.93230450842146</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.24551848867996</v>
+        <v>6.223959330944703</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-6.15757405007446</v>
+        <v>-6.239238373498579</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.431913811857964</v>
+        <v>7.524022522548599</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.022537947868025</v>
+        <v>2.136162040450881</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-15.27927438570483</v>
+        <v>-15.40277647801845</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.333140852202211</v>
+        <v>8.049532895843168</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.67493935048725</v>
+        <v>3.613750787896532</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-11.55936750362882</v>
+        <v>-11.34174989216513</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.003941777722949163</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.2771652140011958</v>
+        <v>-0.2771652140011956</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1140462703411914</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.09600252591757487</v>
+        <v>0.09918568558291022</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.0244938917969676</v>
+        <v>0.0241246284524056</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2303571592789912</v>
+        <v>-0.224622210795295</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.04488526409484375</v>
+        <v>0.04336878640187364</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.03901661863853084</v>
+        <v>-0.03724905731148893</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3091980781202402</v>
+        <v>-0.3069787713610596</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08375551966014985</v>
+        <v>0.07912450918505654</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.002874805066094388</v>
+        <v>0.003558916223286463</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2600290365199473</v>
+        <v>-0.260047771208056</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2083524829908457</v>
+        <v>0.2108931467123975</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1333829971638213</v>
+        <v>0.1329972223171609</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.129093875272228</v>
+        <v>-0.1338082167541224</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1191831573351642</v>
+        <v>0.1194931452541964</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.03233483224948729</v>
+        <v>0.03406277476027165</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.2452020413161109</v>
+        <v>-0.2466648884614775</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1515734474363884</v>
+        <v>0.1459159737331238</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.06637826562112194</v>
+        <v>0.06531316145430204</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.2091853158307519</v>
+        <v>-0.2058128403525384</v>
       </c>
     </row>
     <row r="34">
